--- a/outputs/cluster_8v_results_full.xlsx
+++ b/outputs/cluster_8v_results_full.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_carper\Documents\GitHub\NYC-PUMA-Economic-Clusters\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarp\GitHub\NYC-Neighborhood-Clustering\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B55A32-85D6-4518-AAFE-C3E3E1C7D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5924F66-A66A-4806-8CA1-14E6C3C8B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="pivot" sheetId="2" r:id="rId1"/>
+    <sheet name="output" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -487,8 +487,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -502,6 +502,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -555,7 +556,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -566,63 +567,23 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -696,7 +657,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$9</c:f>
+              <c:f>pivot!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -717,7 +678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$10:$A$14</c:f>
+              <c:f>pivot!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -740,7 +701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$10:$B$14</c:f>
+              <c:f>pivot!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1019,7 +980,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$17</c:f>
+              <c:f>pivot!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,7 +1001,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$18:$A$22</c:f>
+              <c:f>pivot!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1063,7 +1024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$18:$B$22</c:f>
+              <c:f>pivot!$B$18:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1096,7 +1057,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$17</c:f>
+              <c:f>pivot!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1117,7 +1078,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$18:$A$22</c:f>
+              <c:f>pivot!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1140,7 +1101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$18:$C$22</c:f>
+              <c:f>pivot!$C$18:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1173,7 +1134,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$D$17</c:f>
+              <c:f>pivot!$D$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1194,7 +1155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$18:$A$22</c:f>
+              <c:f>pivot!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1217,7 +1178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$18:$D$22</c:f>
+              <c:f>pivot!$D$18:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1250,7 +1211,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$E$17</c:f>
+              <c:f>pivot!$E$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1271,7 +1232,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$18:$A$22</c:f>
+              <c:f>pivot!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1294,7 +1255,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$18:$E$22</c:f>
+              <c:f>pivot!$E$18:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1327,7 +1288,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$F$17</c:f>
+              <c:f>pivot!$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1348,7 +1309,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$18:$A$22</c:f>
+              <c:f>pivot!$A$18:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1371,7 +1332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$18:$F$22</c:f>
+              <c:f>pivot!$F$18:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2761,7 +2722,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="45041.670956481481" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{52843251-3B7A-4839-90C9-F3A1CDF8BDAD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q56" sheet="Sheet1"/>
+    <worksheetSource ref="A1:Q56" sheet="output"/>
   </cacheSource>
   <cacheFields count="17">
     <cacheField name="PUMA" numFmtId="0">
@@ -3880,7 +3841,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7809CED-8A0E-4E2E-9C8C-44607885CB76}" name="PivotTable31" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7809CED-8A0E-4E2E-9C8C-44607885CB76}" name="PivotTable31" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Average" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:G6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3961,7 +3922,7 @@
     <dataField name="Average of OTwoNH20P" fld="16" subtotal="average" baseField="9" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="14">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3970,7 +3931,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="5" selected="0">
@@ -4492,13 +4453,6 @@
         <v>5.0709090909090913</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
@@ -4523,94 +4477,94 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>62119</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>33.778947368421044</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>28.510526315789477</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>11.689473684210499</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>21.163157894736845</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>4.8736842105263154</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>42211.785714285717</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>15.235714285714284</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>42.078571428571422</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>32.578571428571429</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>5.742857142857142</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>4.3571428571428568</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>69437.666666666672</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>26.486666666666668</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>24.45333333333333</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>27.026666666666667</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>16.226666666666667</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>5.793333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>124471.71428571429</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>62.171428571428564</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>12.057142857142859</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>7.1428571428571441</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>13.142857142857142</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>5.4857142857142867</v>
       </c>
     </row>
@@ -4618,22 +4572,22 @@
       <c r="A14" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>64519</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>30.9</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>28.3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>20.2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>15.6</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5</v>
       </c>
     </row>
@@ -4658,101 +4612,101 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <f>C10/100</f>
         <v>0.33778947368421042</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <f t="shared" ref="C18:F18" si="0">D10/100</f>
         <v>0.28510526315789475</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>0.116894736842105</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>0.21163157894736845</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <f t="shared" si="0"/>
         <v>4.8736842105263155E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <f t="shared" ref="B19:F22" si="1">C11/100</f>
         <v>0.15235714285714283</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <f t="shared" si="1"/>
         <v>0.42078571428571421</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>0.32578571428571429</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>5.7428571428571419E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>4.3571428571428567E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f t="shared" si="1"/>
         <v>0.26486666666666669</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <f t="shared" si="1"/>
         <v>0.2445333333333333</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>0.27026666666666666</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>0.16226666666666667</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>5.793333333333333E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <f t="shared" si="1"/>
         <v>0.62171428571428566</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <f t="shared" si="1"/>
         <v>0.12057142857142859</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>7.1428571428571438E-2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
         <v>0.13142857142857142</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>5.4857142857142868E-2</v>
       </c>
@@ -4761,23 +4715,23 @@
       <c r="A22" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f t="shared" si="1"/>
         <v>0.309</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <f t="shared" si="1"/>
         <v>0.28300000000000003</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>0.20199999999999999</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
         <v>0.156</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
